--- a/NewProbableCasesOverTimeByCounty/2021-02-04.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-04.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/03/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/04/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-03</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-04</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1285,6 +1288,7 @@
     <col min="94" max="94" width="12.0" customWidth="true"/>
     <col min="95" max="95" width="12.0" customWidth="true"/>
     <col min="96" max="96" width="12.0" customWidth="true"/>
+    <col min="97" max="97" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1586,10 +1590,13 @@
       <c r="CR3" t="s" s="10">
         <v>97</v>
       </c>
+      <c r="CS3" t="s" s="10">
+        <v>98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1875,11 +1882,14 @@
       </c>
       <c r="CR4" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2164,12 +2174,15 @@
         <v>0.0</v>
       </c>
       <c r="CR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2454,12 +2467,15 @@
         <v>119.0</v>
       </c>
       <c r="CR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2745,11 +2761,14 @@
       </c>
       <c r="CR7" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3034,12 +3053,15 @@
         <v>0.0</v>
       </c>
       <c r="CR8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3325,11 +3347,14 @@
       </c>
       <c r="CR9" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3615,11 +3640,14 @@
       </c>
       <c r="CR10" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -3905,11 +3933,14 @@
       </c>
       <c r="CR11" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4195,11 +4226,14 @@
       </c>
       <c r="CR12" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4485,11 +4519,14 @@
       </c>
       <c r="CR13" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -4775,11 +4812,14 @@
       </c>
       <c r="CR14" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5064,12 +5104,15 @@
         <v>0.0</v>
       </c>
       <c r="CR15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5355,11 +5398,14 @@
       </c>
       <c r="CR16" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5644,12 +5690,15 @@
         <v>0.0</v>
       </c>
       <c r="CR17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -5935,11 +5984,14 @@
       </c>
       <c r="CR18" t="n">
         <v>119.0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6225,11 +6277,14 @@
       </c>
       <c r="CR19" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -6514,12 +6569,15 @@
         <v>0.0</v>
       </c>
       <c r="CR20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -6805,11 +6863,14 @@
       </c>
       <c r="CR21" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -7095,11 +7156,14 @@
       </c>
       <c r="CR22" t="n">
         <v>32.0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7385,11 +7449,14 @@
       </c>
       <c r="CR23" t="n">
         <v>40.0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -7675,11 +7742,14 @@
       </c>
       <c r="CR24" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -7965,11 +8035,14 @@
       </c>
       <c r="CR25" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8254,12 +8327,15 @@
         <v>1.0</v>
       </c>
       <c r="CR26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -8545,11 +8621,14 @@
       </c>
       <c r="CR27" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -8834,12 +8913,15 @@
         <v>16.0</v>
       </c>
       <c r="CR28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -9125,11 +9207,14 @@
       </c>
       <c r="CR29" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -9415,11 +9500,14 @@
       </c>
       <c r="CR30" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -9705,11 +9793,14 @@
       </c>
       <c r="CR31" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CS31" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -9994,12 +10085,15 @@
         <v>0.0</v>
       </c>
       <c r="CR32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -10284,12 +10378,15 @@
         <v>7.0</v>
       </c>
       <c r="CR33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS33" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -10574,12 +10671,15 @@
         <v>0.0</v>
       </c>
       <c r="CR34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -10864,12 +10964,15 @@
         <v>18.0</v>
       </c>
       <c r="CR35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CS35" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -11154,12 +11257,15 @@
         <v>0.0</v>
       </c>
       <c r="CR36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -11445,11 +11551,14 @@
       </c>
       <c r="CR37" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CS37" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -11735,11 +11844,14 @@
       </c>
       <c r="CR38" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS38" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -12024,12 +12136,15 @@
         <v>0.0</v>
       </c>
       <c r="CR39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -12315,11 +12430,14 @@
       </c>
       <c r="CR40" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CS40" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -12604,12 +12722,15 @@
         <v>0.0</v>
       </c>
       <c r="CR41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -12895,11 +13016,14 @@
       </c>
       <c r="CR42" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS42" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -13185,11 +13309,14 @@
       </c>
       <c r="CR43" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS43" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -13475,11 +13602,14 @@
       </c>
       <c r="CR44" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS44" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -13764,12 +13894,15 @@
         <v>0.0</v>
       </c>
       <c r="CR45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -14055,11 +14188,14 @@
       </c>
       <c r="CR46" t="n">
         <v>138.0</v>
+      </c>
+      <c r="CS46" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -14344,12 +14480,15 @@
         <v>0.0</v>
       </c>
       <c r="CR47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -14635,11 +14774,14 @@
       </c>
       <c r="CR48" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS48" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -14925,11 +15067,14 @@
       </c>
       <c r="CR49" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CS49" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -15215,11 +15360,14 @@
       </c>
       <c r="CR50" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS50" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -15505,11 +15653,14 @@
       </c>
       <c r="CR51" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS51" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -15794,12 +15945,15 @@
         <v>1.0</v>
       </c>
       <c r="CR52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CS52" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -16085,11 +16239,14 @@
       </c>
       <c r="CR53" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -16374,12 +16531,15 @@
         <v>0.0</v>
       </c>
       <c r="CR54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -16665,11 +16825,14 @@
       </c>
       <c r="CR55" t="n">
         <v>-2.0</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -16955,11 +17118,14 @@
       </c>
       <c r="CR56" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -17245,11 +17411,14 @@
       </c>
       <c r="CR57" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS57" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -17534,12 +17703,15 @@
         <v>0.0</v>
       </c>
       <c r="CR58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -17825,11 +17997,14 @@
       </c>
       <c r="CR59" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CS59" t="n">
+        <v>-22.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -18115,11 +18290,14 @@
       </c>
       <c r="CR60" t="n">
         <v>133.0</v>
+      </c>
+      <c r="CS60" t="n">
+        <v>340.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -18404,12 +18582,15 @@
         <v>0.0</v>
       </c>
       <c r="CR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -18694,12 +18875,15 @@
         <v>1.0</v>
       </c>
       <c r="CR62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS62" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -18985,11 +19169,14 @@
       </c>
       <c r="CR63" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS63" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -19275,11 +19462,14 @@
       </c>
       <c r="CR64" t="n">
         <v>233.0</v>
+      </c>
+      <c r="CS64" t="n">
+        <v>210.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -19564,12 +19754,15 @@
         <v>0.0</v>
       </c>
       <c r="CR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -19855,11 +20048,14 @@
       </c>
       <c r="CR66" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS66" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -20145,11 +20341,14 @@
       </c>
       <c r="CR67" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS67" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -20435,11 +20634,14 @@
       </c>
       <c r="CR68" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS68" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -20725,11 +20927,14 @@
       </c>
       <c r="CR69" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CS69" t="n">
+        <v>-11.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -21015,11 +21220,14 @@
       </c>
       <c r="CR70" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS70" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -21305,11 +21513,14 @@
       </c>
       <c r="CR71" t="n">
         <v>48.0</v>
+      </c>
+      <c r="CS71" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -21595,11 +21806,14 @@
       </c>
       <c r="CR72" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS72" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -21885,11 +22099,14 @@
       </c>
       <c r="CR73" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CS73" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -22174,12 +22391,15 @@
         <v>0.0</v>
       </c>
       <c r="CR74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -22465,11 +22685,14 @@
       </c>
       <c r="CR75" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS75" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -22755,11 +22978,14 @@
       </c>
       <c r="CR76" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS76" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -23044,12 +23270,15 @@
         <v>11.0</v>
       </c>
       <c r="CR77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CS77" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -23335,11 +23564,14 @@
       </c>
       <c r="CR78" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS78" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -23624,12 +23856,15 @@
         <v>0.0</v>
       </c>
       <c r="CR79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -23915,11 +24150,14 @@
       </c>
       <c r="CR80" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CS80" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -24204,12 +24442,15 @@
         <v>0.0</v>
       </c>
       <c r="CR81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -24495,11 +24736,14 @@
       </c>
       <c r="CR82" t="n">
         <v>206.0</v>
+      </c>
+      <c r="CS82" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -24785,11 +25029,14 @@
       </c>
       <c r="CR83" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS83" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -25075,11 +25322,14 @@
       </c>
       <c r="CR84" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS84" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -25365,11 +25615,14 @@
       </c>
       <c r="CR85" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CS85" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -25654,12 +25907,15 @@
         <v>0.0</v>
       </c>
       <c r="CR86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -25945,11 +26201,14 @@
       </c>
       <c r="CR87" t="n">
         <v>136.0</v>
+      </c>
+      <c r="CS87" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -26235,11 +26494,14 @@
       </c>
       <c r="CR88" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS88" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -26525,11 +26787,14 @@
       </c>
       <c r="CR89" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS89" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -26815,11 +27080,14 @@
       </c>
       <c r="CR90" t="n">
         <v>-7.0</v>
+      </c>
+      <c r="CS90" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -27104,12 +27372,15 @@
         <v>6.0</v>
       </c>
       <c r="CR91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -27395,11 +27666,14 @@
       </c>
       <c r="CR92" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS92" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -27684,12 +27958,15 @@
         <v>0.0</v>
       </c>
       <c r="CR93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS93" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -27974,12 +28251,15 @@
         <v>0.0</v>
       </c>
       <c r="CR94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -28265,11 +28545,14 @@
       </c>
       <c r="CR95" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CS95" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -28555,11 +28838,14 @@
       </c>
       <c r="CR96" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS96" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -28845,11 +29131,14 @@
       </c>
       <c r="CR97" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CS97" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -29134,12 +29423,15 @@
         <v>0.0</v>
       </c>
       <c r="CR98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -29424,12 +29716,15 @@
         <v>0.0</v>
       </c>
       <c r="CR99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -29714,12 +30009,15 @@
         <v>0.0</v>
       </c>
       <c r="CR100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -30005,11 +30303,14 @@
       </c>
       <c r="CR101" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS101" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -30294,12 +30595,15 @@
         <v>0.0</v>
       </c>
       <c r="CR102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -30585,11 +30889,14 @@
       </c>
       <c r="CR103" t="n">
         <v>51.0</v>
+      </c>
+      <c r="CS103" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -30874,12 +31181,15 @@
         <v>0.0</v>
       </c>
       <c r="CR104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -31165,11 +31475,14 @@
       </c>
       <c r="CR105" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CS105" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -31455,11 +31768,14 @@
       </c>
       <c r="CR106" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS106" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -31744,12 +32060,15 @@
         <v>6.0</v>
       </c>
       <c r="CR107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS107" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -32035,11 +32354,14 @@
       </c>
       <c r="CR108" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CS108" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -32324,12 +32646,15 @@
         <v>0.0</v>
       </c>
       <c r="CR109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -32615,11 +32940,14 @@
       </c>
       <c r="CR110" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -32905,11 +33233,14 @@
       </c>
       <c r="CR111" t="n">
         <v>618.0</v>
+      </c>
+      <c r="CS111" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -33195,11 +33526,14 @@
       </c>
       <c r="CR112" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS112" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -33485,11 +33819,14 @@
       </c>
       <c r="CR113" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS113" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -33775,11 +34112,14 @@
       </c>
       <c r="CR114" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS114" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -34065,11 +34405,14 @@
       </c>
       <c r="CR115" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CS115" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -34355,11 +34698,14 @@
       </c>
       <c r="CR116" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS116" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -34645,11 +34991,14 @@
       </c>
       <c r="CR117" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS117" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -34935,11 +35284,14 @@
       </c>
       <c r="CR118" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS118" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -35224,12 +35576,15 @@
         <v>0.0</v>
       </c>
       <c r="CR119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -35515,11 +35870,14 @@
       </c>
       <c r="CR120" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS120" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -35805,11 +36163,14 @@
       </c>
       <c r="CR121" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS121" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -36094,12 +36455,15 @@
         <v>0.0</v>
       </c>
       <c r="CR122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -36385,11 +36749,14 @@
       </c>
       <c r="CR123" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS123" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -36675,11 +37042,14 @@
       </c>
       <c r="CR124" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS124" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -36965,11 +37335,14 @@
       </c>
       <c r="CR125" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS125" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -37254,12 +37627,15 @@
         <v>0.0</v>
       </c>
       <c r="CR126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -37545,11 +37921,14 @@
       </c>
       <c r="CR127" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS127" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -37835,11 +38214,14 @@
       </c>
       <c r="CR128" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS128" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -38125,11 +38507,14 @@
       </c>
       <c r="CR129" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CS129" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -38415,11 +38800,14 @@
       </c>
       <c r="CR130" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS130" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -38705,11 +39093,14 @@
       </c>
       <c r="CR131" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS131" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -38995,11 +39386,14 @@
       </c>
       <c r="CR132" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS132" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -39285,11 +39679,14 @@
       </c>
       <c r="CR133" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS133" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -39575,11 +39972,14 @@
       </c>
       <c r="CR134" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS134" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -39864,12 +40264,15 @@
         <v>0.0</v>
       </c>
       <c r="CR135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS135" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -40155,11 +40558,14 @@
       </c>
       <c r="CR136" t="n">
         <v>27.0</v>
+      </c>
+      <c r="CS136" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -40445,11 +40851,14 @@
       </c>
       <c r="CR137" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS137" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -40734,12 +41143,15 @@
         <v>0.0</v>
       </c>
       <c r="CR138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -41024,12 +41436,15 @@
         <v>0.0</v>
       </c>
       <c r="CR139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -41315,11 +41730,14 @@
       </c>
       <c r="CR140" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CS140" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -41604,12 +42022,15 @@
         <v>3.0</v>
       </c>
       <c r="CR141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -41895,11 +42316,14 @@
       </c>
       <c r="CR142" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CS142" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -42185,11 +42609,14 @@
       </c>
       <c r="CR143" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS143" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -42475,11 +42902,14 @@
       </c>
       <c r="CR144" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CS144" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -42764,12 +43194,15 @@
         <v>0.0</v>
       </c>
       <c r="CR145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -43054,12 +43487,15 @@
         <v>5.0</v>
       </c>
       <c r="CR146" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CS146" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -43345,11 +43781,14 @@
       </c>
       <c r="CR147" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS147" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -43634,12 +44073,15 @@
         <v>2.0</v>
       </c>
       <c r="CR148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS148" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -43925,11 +44367,14 @@
       </c>
       <c r="CR149" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS149" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -44215,11 +44660,14 @@
       </c>
       <c r="CR150" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CS150" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -44504,12 +44952,15 @@
         <v>0.0</v>
       </c>
       <c r="CR151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -44795,11 +45246,14 @@
       </c>
       <c r="CR152" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS152" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -45085,11 +45539,14 @@
       </c>
       <c r="CR153" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS153" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -45374,12 +45831,15 @@
         <v>0.0</v>
       </c>
       <c r="CR154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -45664,12 +46124,15 @@
         <v>0.0</v>
       </c>
       <c r="CR155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -45954,12 +46417,15 @@
         <v>0.0</v>
       </c>
       <c r="CR156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -46245,11 +46711,14 @@
       </c>
       <c r="CR157" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS157" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -46534,12 +47003,15 @@
         <v>0.0</v>
       </c>
       <c r="CR158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -46824,12 +47296,15 @@
         <v>0.0</v>
       </c>
       <c r="CR159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -47115,11 +47590,14 @@
       </c>
       <c r="CR160" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS160" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -47405,11 +47883,14 @@
       </c>
       <c r="CR161" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS161" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -47695,11 +48176,14 @@
       </c>
       <c r="CR162" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS162" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -47985,11 +48469,14 @@
       </c>
       <c r="CR163" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS163" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -48275,11 +48762,14 @@
       </c>
       <c r="CR164" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CS164" t="n">
+        <v>-10.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -48564,12 +49054,15 @@
         <v>0.0</v>
       </c>
       <c r="CR165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -48855,11 +49348,14 @@
       </c>
       <c r="CR166" t="n">
         <v>6.0</v>
+      </c>
+      <c r="CS166" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -49145,11 +49641,14 @@
       </c>
       <c r="CR167" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CS167" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -49434,12 +49933,15 @@
         <v>0.0</v>
       </c>
       <c r="CR168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -49725,11 +50227,14 @@
       </c>
       <c r="CR169" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CS169" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -50015,11 +50520,14 @@
       </c>
       <c r="CR170" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS170" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -50304,12 +50812,15 @@
         <v>0.0</v>
       </c>
       <c r="CR171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -50595,11 +51106,14 @@
       </c>
       <c r="CR172" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS172" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -50885,11 +51399,14 @@
       </c>
       <c r="CR173" t="n">
         <v>103.0</v>
+      </c>
+      <c r="CS173" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -51175,11 +51692,14 @@
       </c>
       <c r="CR174" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS174" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -51465,11 +51985,14 @@
       </c>
       <c r="CR175" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS175" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -51754,12 +52277,15 @@
         <v>0.0</v>
       </c>
       <c r="CR176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -52045,11 +52571,14 @@
       </c>
       <c r="CR177" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS177" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -52335,11 +52864,14 @@
       </c>
       <c r="CR178" t="n">
         <v>34.0</v>
+      </c>
+      <c r="CS178" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -52625,11 +53157,14 @@
       </c>
       <c r="CR179" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS179" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -52914,12 +53449,15 @@
         <v>0.0</v>
       </c>
       <c r="CR180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -53205,11 +53743,14 @@
       </c>
       <c r="CR181" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CS181" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -53495,11 +54036,14 @@
       </c>
       <c r="CR182" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS182" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -53785,11 +54329,14 @@
       </c>
       <c r="CR183" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS183" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -54075,11 +54622,14 @@
       </c>
       <c r="CR184" t="n">
         <v>68.0</v>
+      </c>
+      <c r="CS184" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -54364,12 +54914,15 @@
         <v>1.0</v>
       </c>
       <c r="CR185" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS185" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -54655,11 +55208,14 @@
       </c>
       <c r="CR186" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS186" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -54945,11 +55501,14 @@
       </c>
       <c r="CR187" t="n">
         <v>24.0</v>
+      </c>
+      <c r="CS187" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -55235,11 +55794,14 @@
       </c>
       <c r="CR188" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS188" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -55525,11 +56087,14 @@
       </c>
       <c r="CR189" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CS189" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -55814,12 +56379,15 @@
         <v>49.0</v>
       </c>
       <c r="CR190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -56104,12 +56672,15 @@
         <v>0.0</v>
       </c>
       <c r="CR191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -56395,11 +56966,14 @@
       </c>
       <c r="CR192" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS192" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -56685,11 +57259,14 @@
       </c>
       <c r="CR193" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS193" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -56974,12 +57551,15 @@
         <v>0.0</v>
       </c>
       <c r="CR194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -57265,11 +57845,14 @@
       </c>
       <c r="CR195" t="n">
         <v>2.0</v>
+      </c>
+      <c r="CS195" t="n">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -57554,12 +58137,15 @@
         <v>0.0</v>
       </c>
       <c r="CR196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -57845,11 +58431,14 @@
       </c>
       <c r="CR197" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CS197" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -58135,11 +58724,14 @@
       </c>
       <c r="CR198" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CS198" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -58425,11 +59017,14 @@
       </c>
       <c r="CR199" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS199" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -58714,12 +59309,15 @@
         <v>0.0</v>
       </c>
       <c r="CR200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -59005,11 +59603,14 @@
       </c>
       <c r="CR201" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS201" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -59295,11 +59896,14 @@
       </c>
       <c r="CR202" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CS202" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -59585,11 +60189,14 @@
       </c>
       <c r="CR203" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS203" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -59875,11 +60482,14 @@
       </c>
       <c r="CR204" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CS204" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -60165,11 +60775,14 @@
       </c>
       <c r="CR205" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS205" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -60454,12 +61067,15 @@
         <v>1.0</v>
       </c>
       <c r="CR206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -60745,11 +61361,14 @@
       </c>
       <c r="CR207" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CS207" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -61034,12 +61653,15 @@
         <v>0.0</v>
       </c>
       <c r="CR208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -61325,11 +61947,14 @@
       </c>
       <c r="CR209" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS209" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -61615,11 +62240,14 @@
       </c>
       <c r="CR210" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS210" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -61904,12 +62532,15 @@
         <v>0.0</v>
       </c>
       <c r="CR211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -62194,12 +62825,15 @@
         <v>0.0</v>
       </c>
       <c r="CR212" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS212" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -62485,11 +63119,14 @@
       </c>
       <c r="CR213" t="n">
         <v>3.0</v>
+      </c>
+      <c r="CS213" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -62774,12 +63411,15 @@
         <v>0.0</v>
       </c>
       <c r="CR214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -63065,11 +63705,14 @@
       </c>
       <c r="CR215" t="n">
         <v>57.0</v>
+      </c>
+      <c r="CS215" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -63355,11 +63998,14 @@
       </c>
       <c r="CR216" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS216" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -63645,11 +64291,14 @@
       </c>
       <c r="CR217" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CS217" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -63935,11 +64584,14 @@
       </c>
       <c r="CR218" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS218" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -64224,12 +64876,15 @@
         <v>0.0</v>
       </c>
       <c r="CR219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -64514,12 +65169,15 @@
         <v>1.0</v>
       </c>
       <c r="CR220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -64804,12 +65462,15 @@
         <v>1.0</v>
       </c>
       <c r="CR221" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS221" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -65094,12 +65755,15 @@
         <v>0.0</v>
       </c>
       <c r="CR222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS222" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -65385,11 +66049,14 @@
       </c>
       <c r="CR223" t="n">
         <v>663.0</v>
+      </c>
+      <c r="CS223" t="n">
+        <v>314.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -65675,11 +66342,14 @@
       </c>
       <c r="CR224" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CS224" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -65964,12 +66634,15 @@
         <v>0.0</v>
       </c>
       <c r="CR225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -66254,12 +66927,15 @@
         <v>0.0</v>
       </c>
       <c r="CR226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -66544,12 +67220,15 @@
         <v>0.0</v>
       </c>
       <c r="CR227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -66835,11 +67514,14 @@
       </c>
       <c r="CR228" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CS228" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -67125,11 +67807,14 @@
       </c>
       <c r="CR229" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS229" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -67414,12 +68099,15 @@
         <v>0.0</v>
       </c>
       <c r="CR230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -67704,12 +68392,15 @@
         <v>1.0</v>
       </c>
       <c r="CR231" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CS231" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -67995,11 +68686,14 @@
       </c>
       <c r="CR232" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS232" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -68285,11 +68979,14 @@
       </c>
       <c r="CR233" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS233" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -68574,12 +69271,15 @@
         <v>0.0</v>
       </c>
       <c r="CR234" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CS234" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -68865,11 +69565,14 @@
       </c>
       <c r="CR235" t="n">
         <v>5.0</v>
+      </c>
+      <c r="CS235" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -69154,12 +69857,15 @@
         <v>0.0</v>
       </c>
       <c r="CR236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -69445,11 +70151,14 @@
       </c>
       <c r="CR237" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CS237" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -69734,12 +70443,15 @@
         <v>0.0</v>
       </c>
       <c r="CR238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -70025,11 +70737,14 @@
       </c>
       <c r="CR239" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CS239" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -70315,11 +71030,14 @@
       </c>
       <c r="CR240" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS240" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -70605,11 +71323,14 @@
       </c>
       <c r="CR241" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="CS241" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -70895,11 +71616,14 @@
       </c>
       <c r="CR242" t="n">
         <v>9.0</v>
+      </c>
+      <c r="CS242" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -71184,12 +71908,15 @@
         <v>0.0</v>
       </c>
       <c r="CR243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -71474,12 +72201,15 @@
         <v>-3.0</v>
       </c>
       <c r="CR244" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CS244" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -71764,12 +72494,15 @@
         <v>0.0</v>
       </c>
       <c r="CR245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -72054,12 +72787,15 @@
         <v>0.0</v>
       </c>
       <c r="CR246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -72345,11 +73081,14 @@
       </c>
       <c r="CR247" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS247" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -72635,11 +73374,14 @@
       </c>
       <c r="CR248" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CS248" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -72925,11 +73667,14 @@
       </c>
       <c r="CR249" t="n">
         <v>61.0</v>
+      </c>
+      <c r="CS249" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -73215,11 +73960,14 @@
       </c>
       <c r="CR250" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CS250" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -73505,11 +74253,14 @@
       </c>
       <c r="CR251" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CS251" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -73795,11 +74546,14 @@
       </c>
       <c r="CR252" t="n">
         <v>12.0</v>
+      </c>
+      <c r="CS252" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -74085,11 +74839,14 @@
       </c>
       <c r="CR253" t="n">
         <v>19.0</v>
+      </c>
+      <c r="CS253" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -74374,12 +75131,15 @@
         <v>0.0</v>
       </c>
       <c r="CR254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -74664,12 +75424,15 @@
         <v>2.0</v>
       </c>
       <c r="CR255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CS255" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -74955,11 +75718,14 @@
       </c>
       <c r="CR256" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CS256" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -75245,11 +76011,14 @@
       </c>
       <c r="CR257" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CS257" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -75346,10 +76115,11 @@
       <c r="CP258"/>
       <c r="CQ258"/>
       <c r="CR258"/>
+      <c r="CS258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -75446,6 +76216,7 @@
       <c r="CP259"/>
       <c r="CQ259"/>
       <c r="CR259"/>
+      <c r="CS259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
